--- a/Porcentaje de Categorias.xlsx
+++ b/Porcentaje de Categorias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\Programacion\Codigo python\PythonProyectosDatos\Data Analytics Case Study - Coursera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3054DD-512F-454E-AF81-75E74B7F61B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511CB31F-0AD9-49AF-A7A7-1AF805E14C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>15.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>54.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>24.2</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
